--- a/data/RostVol_PSH.xlsx
+++ b/data/RostVol_PSH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -822,14 +822,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -841,6 +838,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1149,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AQ9" sqref="AQ9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,46 +1171,46 @@
       <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="26"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="25"/>
     </row>
     <row r="2" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="22"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="1">
         <v>100</v>
       </c>
@@ -1312,9 +1312,9 @@
       <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="13">
         <v>1</v>
       </c>
@@ -5005,8 +5005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ39"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AK4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5027,46 +5027,46 @@
       <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="26"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="25"/>
     </row>
     <row r="2" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="22"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="1">
         <v>150</v>
       </c>
@@ -5168,9 +5168,9 @@
       <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="13">
         <v>1</v>
       </c>
@@ -7935,8 +7935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ50"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AK4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7957,46 +7957,46 @@
       <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="26"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="25"/>
     </row>
     <row r="2" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="22"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="1">
         <v>100</v>
       </c>
@@ -8098,9 +8098,9 @@
       <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="13">
         <v>1</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="67.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="93" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="93" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="185.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" ht="281.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>29</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>30</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>31</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>32</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>34</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>36</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>40</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>72</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>41</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>45</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>79</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="80.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" ht="93" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>47</v>
       </c>
@@ -11502,8 +11502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ42"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AK4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11524,46 +11524,46 @@
       <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="26"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="25"/>
     </row>
     <row r="2" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="22"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="1">
         <v>150</v>
       </c>
@@ -11665,9 +11665,9 @@
       <c r="A3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="13">
         <v>1</v>
       </c>
